--- a/database/seeders/SeederFiles/seeder_file.xlsx
+++ b/database/seeders/SeederFiles/seeder_file.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Risk Incident Report System\Project\project\database\seeders\SeederFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22043BCA-39D4-4E49-9309-A82807124CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A9A50-4C3A-4FFF-B4DD-E539F80AB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-75" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{44F2C064-73A1-4558-A34E-AC822712B8A7}"/>
+    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15600" activeTab="4" xr2:uid="{44F2C064-73A1-4558-A34E-AC822712B8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Block" sheetId="2" r:id="rId2"/>
     <sheet name="Houses" sheetId="3" r:id="rId3"/>
     <sheet name="Services" sheetId="4" r:id="rId4"/>
+    <sheet name="Deposits" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="181">
   <si>
     <t>username</t>
   </si>
@@ -541,6 +542,36 @@
   </si>
   <si>
     <t>EX0030</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Garbage Collection</t>
+  </si>
+  <si>
+    <t>Gargening</t>
+  </si>
+  <si>
+    <t>garbage collection service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security service </t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>gardening service</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>agent_id</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1255,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76962998-9F97-4F8A-90D6-D36DA49BEFD6}">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
@@ -2560,14 +2591,248 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7703FE34-8A5B-422A-B6B7-9C0D158A6C35}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA0161B-CD7E-417A-8CD5-C30C4D6D6761}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>